--- a/input/試験問題.xlsx
+++ b/input/試験問題.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/NBPlan/TTC/examtools/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB669733-4FA4-1244-8E02-44972C90077E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004C86A-AC05-984A-8D18-2599216A3C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1340" windowWidth="28260" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="1340" windowWidth="32560" windowHeight="25140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1020201" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1020201'!$A$1:$C$556</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2022101'!$A$1:$E$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2022101'!$A$1:$E$574</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="646">
   <si>
     <t>b_exam</t>
   </si>
@@ -2274,6 +2274,21 @@
   <si>
     <t xml:space="preserve">  (                  )</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名（メンバ名）によって、データの意味が直感的に分かりやすくなる</t>
+  </si>
+  <si>
+    <t>関数の引数として、複数のデータを一度に渡すことができる</t>
+  </si>
+  <si>
+    <t>メモリのアクセス効率が最適化され、必ず実行速度が向上する</t>
+  </si>
+  <si>
+    <t>関連する異なる型のデータを、ひとまとまりとして管理できる</t>
+  </si>
+  <si>
+    <t>構造体を使うことで得られるメリットとして、誤っているものを選んでください。</t>
   </si>
 </sst>
 </file>
@@ -2721,13 +2736,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>846667</xdr:colOff>
-      <xdr:row>511</xdr:row>
+      <xdr:row>524</xdr:row>
       <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>846660</xdr:colOff>
-      <xdr:row>512</xdr:row>
+      <xdr:row>525</xdr:row>
       <xdr:rowOff>56444</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9875,10 +9890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G561"/>
+  <dimension ref="A1:G574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -11032,7 +11047,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B120" s="24" t="s">
         <v>18</v>
@@ -11046,10 +11061,13 @@
         <v>617</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="G121" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -11057,193 +11075,202 @@
         <v>22</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="B123" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B123" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B124" s="46" t="s">
-        <v>619</v>
+        <v>26</v>
+      </c>
+      <c r="B124" t="s">
+        <v>641</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B125" s="46" t="s">
-        <v>620</v>
+        <v>26</v>
+      </c>
+      <c r="B125" t="s">
+        <v>642</v>
+      </c>
+      <c r="G125">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B126" s="46" t="s">
-        <v>621</v>
+        <v>26</v>
+      </c>
+      <c r="B126" t="s">
+        <v>643</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B127" s="46" t="s">
-        <v>622</v>
+        <v>26</v>
+      </c>
+      <c r="B127" t="s">
+        <v>644</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B128" s="46"/>
+        <v>30</v>
+      </c>
+      <c r="B128"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="B129" t="s">
-        <v>623</v>
-      </c>
+      <c r="A129" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B130" s="1"/>
+      <c r="A130" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="3">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3">
+        <v>2</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="G130" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="B131" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="A131" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B132"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B133" t="s">
-        <v>624</v>
+      <c r="A133" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B134" t="s">
-        <v>40</v>
+      <c r="A134" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D134">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G135">
-        <v>4</v>
+      <c r="A135" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="G136">
-        <v>3</v>
-      </c>
+      <c r="A136" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B137" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="G137">
-        <v>2</v>
+      <c r="A137" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B137" s="46" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
+      <c r="A138" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B138" s="46" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B139"/>
+      <c r="A139" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B139" s="46" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+      <c r="A140" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B140" s="46" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B141" s="4">
-        <v>3</v>
-      </c>
-      <c r="C141" s="3">
-        <v>2</v>
-      </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="G141" s="12">
-        <v>3</v>
-      </c>
+      <c r="A141" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B141" s="46"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="A142" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="B142" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>18</v>
@@ -11260,7 +11287,7 @@
         <v>61</v>
       </c>
       <c r="B146" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -11268,7 +11295,7 @@
         <v>63</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -11276,7 +11303,7 @@
         <v>64</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -11287,7 +11314,7 @@
         <v>64</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -11298,7 +11325,7 @@
         <v>64</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -11309,7 +11336,7 @@
         <v>64</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -11366,7 +11393,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="23" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B157" s="24" t="s">
         <v>18</v>
@@ -11388,245 +11415,234 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="B160"/>
+        <v>63</v>
+      </c>
+      <c r="B160" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="10" t="s">
-        <v>635</v>
+        <v>64</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="10" t="s">
-        <v>635</v>
+        <v>64</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="10" t="s">
-        <v>635</v>
+        <v>64</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G163">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="10" t="s">
-        <v>638</v>
+        <v>64</v>
       </c>
       <c r="B164" s="21" t="s">
         <v>633</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="19" t="s">
+      <c r="A165" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B166" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="C166" s="3">
-        <v>2</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-      <c r="G166" s="12">
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3">
+        <v>2</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
+      <c r="G167" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="A168" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B168" s="4"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:7" ht="24" customHeight="1">
-      <c r="A170" s="20" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="B171" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="A171" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C172" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="D172">
-        <v>8</v>
-      </c>
-      <c r="E172">
+      <c r="A172" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B172" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="G175">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B174" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B175" t="s">
-        <v>127</v>
-      </c>
-      <c r="G175">
+    <row r="176" spans="1:7">
+      <c r="A176" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="G176">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B176" t="s">
-        <v>128</v>
-      </c>
-      <c r="G176">
+    <row r="177" spans="1:7">
+      <c r="A177" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C179" s="3">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="G179" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B177" t="s">
-        <v>129</v>
-      </c>
-      <c r="G177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B178" t="s">
-        <v>130</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A180" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B180" s="4"/>
+      <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B181" s="3">
-        <v>1</v>
-      </c>
-      <c r="C181" s="3">
-        <v>2</v>
-      </c>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="G181">
-        <v>4</v>
+      <c r="A181" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B182" s="4"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="8" t="s">
+      <c r="A182" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" ht="24" customHeight="1">
+      <c r="A183" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B183"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B184" s="24" t="s">
         <v>18</v>
@@ -11640,10 +11656,13 @@
         <v>125</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D185">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -11651,149 +11670,157 @@
         <v>22</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="10" t="s">
-        <v>56</v>
+      <c r="A187" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B188" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B188" t="s">
+        <v>127</v>
+      </c>
+      <c r="G188">
+        <v>4</v>
+      </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="B189" s="24" t="s">
-        <v>18</v>
+      <c r="A189" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B189" t="s">
+        <v>128</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B190" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B190" t="s">
+        <v>129</v>
+      </c>
+      <c r="G190">
+        <v>2</v>
+      </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="18" t="s">
-        <v>61</v>
+      <c r="A191" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B191" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B192" t="s">
-        <v>40</v>
+      <c r="A192" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B193" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G193">
+      <c r="A193" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+      <c r="C194" s="3">
+        <v>2</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="G194">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B194" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G194">
-        <v>3</v>
-      </c>
-    </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B195" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G195">
-        <v>2</v>
-      </c>
+      <c r="A195" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B195" s="4"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B196" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
+      <c r="A196" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B197"/>
+      <c r="A197" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B197" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B198" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
+      <c r="A198" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D198">
+        <v>10</v>
+      </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B199" s="4">
-        <v>2</v>
-      </c>
-      <c r="C199" s="3">
-        <v>2</v>
-      </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="G199" s="12">
-        <v>3</v>
+      <c r="A199" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B200" s="4"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+      <c r="A200" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B201" s="1"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B202" s="24" t="s">
         <v>18</v>
@@ -11810,7 +11837,7 @@
         <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>410</v>
+        <v>133</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -11826,10 +11853,10 @@
         <v>64</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G206">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -11840,7 +11867,7 @@
         <v>135</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -11848,10 +11875,10 @@
         <v>64</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G208">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -11859,10 +11886,10 @@
         <v>64</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -11889,7 +11916,7 @@
         <v>70</v>
       </c>
       <c r="B212" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" s="3">
         <v>2</v>
@@ -11916,7 +11943,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="23" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B215" s="24" t="s">
         <v>18</v>
@@ -11933,7 +11960,7 @@
         <v>61</v>
       </c>
       <c r="B217" t="s">
-        <v>553</v>
+        <v>410</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -11949,10 +11976,10 @@
         <v>64</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G219">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -11960,29 +11987,29 @@
         <v>64</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G220">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B221" s="22" t="s">
-        <v>143</v>
+      <c r="B221" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B222" s="22" t="s">
-        <v>144</v>
+      <c r="B222" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -12012,7 +12039,7 @@
         <v>70</v>
       </c>
       <c r="B225" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C225" s="3">
         <v>2</v>
@@ -12020,7 +12047,7 @@
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="G225" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -12039,7 +12066,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="23" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B228" s="24" t="s">
         <v>18</v>
@@ -12056,7 +12083,7 @@
         <v>61</v>
       </c>
       <c r="B230" t="s">
-        <v>145</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -12072,10 +12099,10 @@
         <v>64</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G232">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -12083,10 +12110,10 @@
         <v>64</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G233">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -12094,7 +12121,7 @@
         <v>64</v>
       </c>
       <c r="B234" s="22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -12105,10 +12132,10 @@
         <v>64</v>
       </c>
       <c r="B235" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G235">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -12134,8 +12161,8 @@
       <c r="A238" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B238" s="3">
-        <v>2</v>
+      <c r="B238" s="4">
+        <v>3</v>
       </c>
       <c r="C238" s="3">
         <v>2</v>
@@ -12143,7 +12170,7 @@
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="G238" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -12162,7 +12189,7 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B241" s="24" t="s">
         <v>18</v>
@@ -12179,7 +12206,7 @@
         <v>61</v>
       </c>
       <c r="B243" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -12187,18 +12214,18 @@
         <v>63</v>
       </c>
       <c r="B244" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="24" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G245">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -12206,29 +12233,29 @@
         <v>64</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B247" t="s">
-        <v>153</v>
+      <c r="B247" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="G247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B248" s="21" t="s">
-        <v>154</v>
+      <c r="B248" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -12266,7 +12293,7 @@
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="G251" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -12284,149 +12311,142 @@
       </c>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B254" s="1"/>
-    </row>
-    <row r="255" spans="1:7" ht="24" customHeight="1">
-      <c r="A255" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="A254" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="B254" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B255" s="1"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="B256" s="24" t="s">
-        <v>18</v>
+      <c r="A256" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B256" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B257" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C257" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D257">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B258" s="12" t="s">
-        <v>165</v>
+      <c r="A257" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B257" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="24" customHeight="1">
+      <c r="A258" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B258" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G258">
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" t="s">
-        <v>24</v>
-      </c>
-      <c r="B259" t="s">
-        <v>25</v>
+      <c r="A259" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B259" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" t="s">
-        <v>26</v>
-      </c>
-      <c r="B260" s="12" t="s">
-        <v>166</v>
+      <c r="A260" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B260" t="s">
+        <v>153</v>
       </c>
       <c r="G260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B261" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G261">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
-      <c r="A261" t="s">
-        <v>26</v>
-      </c>
-      <c r="B261" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G261">
+    <row r="262" spans="1:7">
+      <c r="A262" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B263" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B264" s="3">
+        <v>2</v>
+      </c>
+      <c r="C264" s="3">
+        <v>2</v>
+      </c>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="G264" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
-      <c r="A262" t="s">
-        <v>26</v>
-      </c>
-      <c r="B262" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G262">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" t="s">
-        <v>26</v>
-      </c>
-      <c r="B263" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G263">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A265" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B265" s="4"/>
+      <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B266" s="3">
-        <v>2</v>
-      </c>
-      <c r="C266" s="3">
-        <v>2</v>
-      </c>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="G266" s="12">
-        <v>1</v>
+      <c r="A266" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B267" s="4"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="8" t="s">
+      <c r="A267" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" ht="24" customHeight="1">
+      <c r="A268" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="25" t="s">
-        <v>195</v>
+        <v>364</v>
       </c>
       <c r="B269" s="24" t="s">
         <v>18</v>
@@ -12437,13 +12457,13 @@
         <v>19</v>
       </c>
       <c r="B270" s="42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>190</v>
+        <v>361</v>
       </c>
       <c r="D270">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -12451,7 +12471,7 @@
         <v>22</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -12467,10 +12487,10 @@
         <v>26</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G273">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -12478,10 +12498,10 @@
         <v>26</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G274">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -12489,10 +12509,10 @@
         <v>26</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -12500,7 +12520,7 @@
         <v>26</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G276">
         <v>2</v>
@@ -12529,7 +12549,7 @@
         <v>34</v>
       </c>
       <c r="B279" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C279" s="3">
         <v>2</v>
@@ -12537,7 +12557,7 @@
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="G279" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -12556,7 +12576,7 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B282" s="24" t="s">
         <v>18</v>
@@ -12567,16 +12587,13 @@
         <v>19</v>
       </c>
       <c r="B283" s="42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C283" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D283">
-        <v>13</v>
-      </c>
-      <c r="E283">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -12584,7 +12601,7 @@
         <v>22</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -12600,10 +12617,10 @@
         <v>26</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G286">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -12611,10 +12628,10 @@
         <v>26</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G287">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -12622,7 +12639,7 @@
         <v>26</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -12633,10 +12650,10 @@
         <v>26</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G289">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -12655,14 +12672,14 @@
         <v>33</v>
       </c>
       <c r="D291" s="3"/>
-      <c r="E291" s="27"/>
+      <c r="E291" s="3"/>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B292" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" s="3">
         <v>2</v>
@@ -12688,10 +12705,10 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B295" s="30" t="s">
+      <c r="A295" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B295" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12699,14 +12716,17 @@
       <c r="A296" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B296" s="10" t="s">
-        <v>188</v>
+      <c r="B296" s="42" t="s">
+        <v>177</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="D296">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -12714,15 +12734,15 @@
         <v>22</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>24</v>
       </c>
-      <c r="B298" s="12" t="s">
-        <v>203</v>
+      <c r="B298" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -12730,10 +12750,10 @@
         <v>26</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G299">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -12741,10 +12761,10 @@
         <v>26</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G300">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -12752,10 +12772,10 @@
         <v>26</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G301">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -12763,7 +12783,7 @@
         <v>26</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G302">
         <v>3</v>
@@ -12773,59 +12793,55 @@
       <c r="A303" t="s">
         <v>30</v>
       </c>
-      <c r="G303"/>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="27" t="s">
+      <c r="A304" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B304" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C304" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D304" s="27"/>
+      <c r="C304" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D304" s="3"/>
       <c r="E304" s="27"/>
-      <c r="G304"/>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="29" t="s">
+      <c r="A305" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B305" s="28">
-        <v>2</v>
-      </c>
-      <c r="C305" s="27">
-        <v>2</v>
-      </c>
-      <c r="D305" s="27"/>
-      <c r="E305" s="27"/>
-      <c r="G305">
-        <v>1</v>
+      <c r="B305" s="3">
+        <v>2</v>
+      </c>
+      <c r="C305" s="3">
+        <v>2</v>
+      </c>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+      <c r="G305" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="27" t="s">
+      <c r="A306" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B306" s="28"/>
-      <c r="C306" s="27"/>
-      <c r="D306" s="27"/>
-      <c r="E306" s="27"/>
-      <c r="G306"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G307"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B308" s="24" t="s">
+      <c r="A308" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B308" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12833,164 +12849,175 @@
       <c r="A309" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>197</v>
+      <c r="B309" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D309">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B310" t="s">
-        <v>196</v>
+      <c r="B310" s="12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B311" t="s">
-        <v>275</v>
+      <c r="A311" t="s">
+        <v>24</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B312" s="1"/>
+      <c r="A312" t="s">
+        <v>26</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G312">
+        <v>4</v>
+      </c>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="B313" s="24" t="s">
-        <v>18</v>
+      <c r="A313" t="s">
+        <v>26</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:7">
-      <c r="A314" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B314" s="1"/>
+      <c r="A314" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G314">
+        <v>2</v>
+      </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B315" t="s">
-        <v>198</v>
+      <c r="A315" t="s">
+        <v>26</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G315">
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B316" t="s">
-        <v>203</v>
-      </c>
+      <c r="A316" t="s">
+        <v>30</v>
+      </c>
+      <c r="G316"/>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B317" t="s">
-        <v>199</v>
-      </c>
-      <c r="G317">
-        <v>4</v>
-      </c>
+      <c r="A317" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C317" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D317" s="27"/>
+      <c r="E317" s="27"/>
+      <c r="G317"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B318" t="s">
-        <v>200</v>
-      </c>
+      <c r="A318" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B318" s="28">
+        <v>2</v>
+      </c>
+      <c r="C318" s="27">
+        <v>2</v>
+      </c>
+      <c r="D318" s="27"/>
+      <c r="E318" s="27"/>
       <c r="G318">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B319" t="s">
-        <v>201</v>
-      </c>
-      <c r="G319">
-        <v>2</v>
-      </c>
+      <c r="A319" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B319" s="28"/>
+      <c r="C319" s="27"/>
+      <c r="D319" s="27"/>
+      <c r="E319" s="27"/>
+      <c r="G319"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B320" t="s">
-        <v>202</v>
-      </c>
-      <c r="G320">
-        <v>3</v>
-      </c>
+      <c r="A320" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G320"/>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B321"/>
+      <c r="A321" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B321" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B322" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
+      <c r="A322" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C322" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D322">
+        <v>16</v>
+      </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B323" s="3">
-        <v>2</v>
-      </c>
-      <c r="C323" s="3">
-        <v>2</v>
-      </c>
-      <c r="D323" s="3"/>
-      <c r="E323" s="3"/>
-      <c r="G323" s="12">
-        <v>1</v>
+      <c r="A323" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B323" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B324" s="4"/>
-      <c r="C324" s="3"/>
-      <c r="D324" s="3"/>
-      <c r="E324" s="3"/>
+      <c r="A324" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B324" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B325" s="1"/>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B326" s="24" t="s">
         <v>18</v>
@@ -13007,7 +13034,7 @@
         <v>61</v>
       </c>
       <c r="B328" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -13015,7 +13042,7 @@
         <v>63</v>
       </c>
       <c r="B329" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -13023,10 +13050,10 @@
         <v>64</v>
       </c>
       <c r="B330" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G330">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -13034,10 +13061,10 @@
         <v>64</v>
       </c>
       <c r="B331" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G331">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -13045,10 +13072,10 @@
         <v>64</v>
       </c>
       <c r="B332" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G332">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -13056,10 +13083,10 @@
         <v>64</v>
       </c>
       <c r="B333" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G333">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -13094,7 +13121,7 @@
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="G336" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -13112,186 +13139,175 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B339" s="1"/>
-    </row>
-    <row r="340" spans="1:7" ht="24" customHeight="1">
-      <c r="A340" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="A339" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B339" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B340" s="1"/>
     </row>
     <row r="341" spans="1:7">
-      <c r="A341" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="B341" s="30" t="s">
-        <v>18</v>
+      <c r="A341" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B341" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="342" spans="1:7">
-      <c r="A342" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B342" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C342" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D342">
-        <v>15</v>
+      <c r="A342" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B342" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="343" spans="1:7">
-      <c r="A343" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B343" s="12" t="s">
-        <v>211</v>
+      <c r="A343" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B343" t="s">
+        <v>205</v>
+      </c>
+      <c r="G343">
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B344" t="s">
+        <v>206</v>
+      </c>
+      <c r="G344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B345" t="s">
+        <v>207</v>
+      </c>
+      <c r="G345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B346" t="s">
+        <v>208</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B347"/>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B348" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B349" s="3">
+        <v>2</v>
+      </c>
+      <c r="C349" s="3">
+        <v>2</v>
+      </c>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
+      <c r="G349" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B350" s="4"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B352" s="1"/>
+    </row>
+    <row r="353" spans="1:7" ht="24" customHeight="1">
+      <c r="A353" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B354" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C355" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D355">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B357" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345" t="s">
-        <v>24</v>
-      </c>
-      <c r="B345" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
-      <c r="A346" t="s">
-        <v>26</v>
-      </c>
-      <c r="B346" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G346">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
-      <c r="A347" t="s">
-        <v>26</v>
-      </c>
-      <c r="B347" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G347">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
-      <c r="A348" t="s">
-        <v>26</v>
-      </c>
-      <c r="B348" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="G348">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
-      <c r="A349" t="s">
-        <v>26</v>
-      </c>
-      <c r="B349" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="G349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
-      <c r="A350" t="s">
-        <v>30</v>
-      </c>
-      <c r="G350"/>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B351" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C351" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D351" s="27"/>
-      <c r="E351" s="27"/>
-      <c r="G351"/>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B352" s="28">
-        <v>4</v>
-      </c>
-      <c r="C352" s="27">
-        <v>2</v>
-      </c>
-      <c r="D352" s="27"/>
-      <c r="E352" s="27"/>
-      <c r="G352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
-      <c r="A353" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B353" s="28"/>
-      <c r="C353" s="27"/>
-      <c r="D353" s="27"/>
-      <c r="E353" s="27"/>
-      <c r="G353"/>
-    </row>
-    <row r="354" spans="1:7">
-      <c r="A354" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G354"/>
-    </row>
-    <row r="355" spans="1:7">
-      <c r="A355" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B355" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
-      <c r="A356" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B356" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C356" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D356">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
-      <c r="A357" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B357" s="12" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -13299,7 +13315,7 @@
         <v>24</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -13307,10 +13323,10 @@
         <v>26</v>
       </c>
       <c r="B359" s="31" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="G359">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -13318,10 +13334,10 @@
         <v>26</v>
       </c>
       <c r="B360" s="31" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="G360">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13329,10 +13345,10 @@
         <v>26</v>
       </c>
       <c r="B361" s="31" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="G361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13340,10 +13356,10 @@
         <v>26</v>
       </c>
       <c r="B362" s="31" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13371,7 +13387,7 @@
         <v>34</v>
       </c>
       <c r="B365" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C365" s="27">
         <v>2</v>
@@ -13379,7 +13395,7 @@
       <c r="D365" s="27"/>
       <c r="E365" s="27"/>
       <c r="G365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13400,7 +13416,7 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B368" s="30" t="s">
         <v>18</v>
@@ -13411,16 +13427,13 @@
         <v>19</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C369" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D369">
-        <v>18</v>
-      </c>
-      <c r="E369">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -13428,345 +13441,348 @@
         <v>22</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="371" spans="1:7">
-      <c r="A371" s="9" t="s">
-        <v>223</v>
+      <c r="A371" t="s">
+        <v>24</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="372" spans="1:7">
       <c r="A372" t="s">
-        <v>229</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B372" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G372">
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:7">
-      <c r="A373" s="8" t="s">
-        <v>92</v>
+      <c r="A373" t="s">
+        <v>26</v>
       </c>
       <c r="B373" s="31" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="G373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" t="s">
+        <v>26</v>
+      </c>
+      <c r="B374" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G374">
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
-      <c r="A374" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B374" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="G374">
-        <v>2</v>
-      </c>
-    </row>
     <row r="375" spans="1:7">
-      <c r="A375" s="8" t="s">
-        <v>92</v>
+      <c r="A375" t="s">
+        <v>26</v>
       </c>
       <c r="B375" s="31" t="s">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="G375">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:7">
-      <c r="A376" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B376" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="G376">
+      <c r="A376" t="s">
+        <v>30</v>
+      </c>
+      <c r="G376"/>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B377" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C377" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D377" s="27"/>
+      <c r="E377" s="27"/>
+      <c r="G377"/>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B378" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="377" spans="1:7">
-      <c r="A377" t="s">
-        <v>230</v>
-      </c>
-      <c r="G377"/>
-    </row>
-    <row r="378" spans="1:7">
-      <c r="A378" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B378" s="28"/>
-      <c r="C378" s="27" t="s">
-        <v>306</v>
+      <c r="C378" s="27">
+        <v>2</v>
       </c>
       <c r="D378" s="27"/>
       <c r="E378" s="27"/>
-      <c r="G378"/>
+      <c r="G378">
+        <v>4</v>
+      </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B379" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C379" s="27">
+      <c r="A379" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" s="28"/>
+      <c r="C379" s="27"/>
+      <c r="D379" s="27"/>
+      <c r="E379" s="27"/>
+      <c r="G379"/>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G380"/>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B381" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C382" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D382">
+        <v>18</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B383" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" t="s">
+        <v>229</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B386" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B387" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="G387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B388" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B389" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G389">
         <v>3</v>
-      </c>
-      <c r="D379" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="E379" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="G379"/>
-    </row>
-    <row r="380" spans="1:7">
-      <c r="A380" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B380" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C380" s="27">
-        <v>3</v>
-      </c>
-      <c r="D380" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="E380" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G380"/>
-    </row>
-    <row r="381" spans="1:7">
-      <c r="A381" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B381" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C381" s="27">
-        <v>3</v>
-      </c>
-      <c r="D381" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="E381" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="G381"/>
-    </row>
-    <row r="382" spans="1:7">
-      <c r="A382" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B382" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C382" s="27">
-        <v>3</v>
-      </c>
-      <c r="D382" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="E382" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="G382"/>
-    </row>
-    <row r="383" spans="1:7">
-      <c r="A383" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B383" s="28"/>
-      <c r="C383" s="27"/>
-      <c r="D383" s="27"/>
-      <c r="E383" s="27"/>
-      <c r="G383"/>
-    </row>
-    <row r="384" spans="1:7">
-      <c r="A384" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G384"/>
-    </row>
-    <row r="385" spans="1:7">
-      <c r="A385" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B385" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
-      <c r="A386" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B386" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C386" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D386">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7">
-      <c r="A387" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B387" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7">
-      <c r="A388" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B388" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7">
-      <c r="A389" t="s">
-        <v>24</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" t="s">
-        <v>26</v>
-      </c>
-      <c r="B390" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="G390">
-        <v>4</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G390"/>
     </row>
     <row r="391" spans="1:7">
-      <c r="A391" t="s">
-        <v>26</v>
-      </c>
-      <c r="B391" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="G391">
+      <c r="A391" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B391" s="28"/>
+      <c r="C391" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D391" s="27"/>
+      <c r="E391" s="27"/>
+      <c r="G391"/>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B392" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C392" s="27">
         <v>3</v>
       </c>
-    </row>
-    <row r="392" spans="1:7">
-      <c r="A392" t="s">
-        <v>26</v>
-      </c>
-      <c r="B392" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="G392">
-        <v>1</v>
-      </c>
+      <c r="D392" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="E392" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G392"/>
     </row>
     <row r="393" spans="1:7">
-      <c r="A393" t="s">
-        <v>26</v>
-      </c>
-      <c r="B393" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="G393">
-        <v>2</v>
-      </c>
+      <c r="A393" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B393" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C393" s="27">
+        <v>3</v>
+      </c>
+      <c r="D393" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="E393" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G393"/>
     </row>
     <row r="394" spans="1:7">
-      <c r="A394" t="s">
-        <v>30</v>
+      <c r="A394" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B394" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C394" s="27">
+        <v>3</v>
+      </c>
+      <c r="D394" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="E394" s="27" t="s">
+        <v>233</v>
       </c>
       <c r="G394"/>
     </row>
     <row r="395" spans="1:7">
-      <c r="A395" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B395" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C395" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D395" s="27"/>
-      <c r="E395" s="27"/>
+      <c r="A395" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B395" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C395" s="27">
+        <v>3</v>
+      </c>
+      <c r="D395" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="E395" s="27" t="s">
+        <v>234</v>
+      </c>
       <c r="G395"/>
     </row>
     <row r="396" spans="1:7">
-      <c r="A396" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B396" s="28">
-        <v>3</v>
-      </c>
-      <c r="C396" s="27">
-        <v>2</v>
-      </c>
+      <c r="A396" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B396" s="28"/>
+      <c r="C396" s="27"/>
       <c r="D396" s="27"/>
       <c r="E396" s="27"/>
-      <c r="G396">
-        <v>1</v>
-      </c>
+      <c r="G396"/>
     </row>
     <row r="397" spans="1:7">
-      <c r="A397" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B397" s="28"/>
-      <c r="C397" s="27"/>
-      <c r="D397" s="27"/>
-      <c r="E397" s="27"/>
+      <c r="A397" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G397"/>
     </row>
     <row r="398" spans="1:7">
-      <c r="A398" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G398"/>
+      <c r="A398" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B398" s="30" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="399" spans="1:7">
-      <c r="A399" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="B399" s="30" t="s">
-        <v>18</v>
+      <c r="A399" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C399" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D399">
+        <v>19</v>
       </c>
     </row>
     <row r="400" spans="1:7">
-      <c r="A400" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B400" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C400" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D400">
-        <v>20</v>
+      <c r="A400" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="9" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="B401" s="12" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -13782,10 +13798,10 @@
         <v>26</v>
       </c>
       <c r="B403" s="31" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G403">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -13793,10 +13809,10 @@
         <v>26</v>
       </c>
       <c r="B404" s="31" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G404">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -13804,7 +13820,7 @@
         <v>26</v>
       </c>
       <c r="B405" s="31" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G405">
         <v>1</v>
@@ -13815,10 +13831,10 @@
         <v>26</v>
       </c>
       <c r="B406" s="31" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G406">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -13846,7 +13862,7 @@
         <v>34</v>
       </c>
       <c r="B409" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C409" s="27">
         <v>2</v>
@@ -13854,7 +13870,7 @@
       <c r="D409" s="27"/>
       <c r="E409" s="27"/>
       <c r="G409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -13875,7 +13891,7 @@
     </row>
     <row r="412" spans="1:7">
       <c r="A412" s="26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B412" s="30" t="s">
         <v>18</v>
@@ -13889,10 +13905,10 @@
         <v>235</v>
       </c>
       <c r="C413" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D413">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -13900,7 +13916,7 @@
         <v>22</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -13916,10 +13932,10 @@
         <v>26</v>
       </c>
       <c r="B416" s="31" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G416">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -13927,10 +13943,10 @@
         <v>26</v>
       </c>
       <c r="B417" s="31" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G417">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -13938,10 +13954,10 @@
         <v>26</v>
       </c>
       <c r="B418" s="31" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G418">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -13949,7 +13965,7 @@
         <v>26</v>
       </c>
       <c r="B419" s="31" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G419">
         <v>3</v>
@@ -13980,7 +13996,7 @@
         <v>34</v>
       </c>
       <c r="B422" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C422" s="27">
         <v>2</v>
@@ -14009,7 +14025,7 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B425" s="30" t="s">
         <v>18</v>
@@ -14020,13 +14036,13 @@
         <v>19</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="C426" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D426">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -14034,7 +14050,7 @@
         <v>22</v>
       </c>
       <c r="B427" s="12" t="s">
-        <v>375</v>
+        <v>250</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -14050,10 +14066,10 @@
         <v>26</v>
       </c>
       <c r="B429" s="31" t="s">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="G429">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -14061,10 +14077,10 @@
         <v>26</v>
       </c>
       <c r="B430" s="31" t="s">
-        <v>377</v>
+        <v>252</v>
       </c>
       <c r="G430">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -14072,10 +14088,10 @@
         <v>26</v>
       </c>
       <c r="B431" s="31" t="s">
-        <v>378</v>
+        <v>253</v>
       </c>
       <c r="G431">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -14083,10 +14099,10 @@
         <v>26</v>
       </c>
       <c r="B432" s="31" t="s">
-        <v>379</v>
+        <v>254</v>
       </c>
       <c r="G432">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -14114,7 +14130,7 @@
         <v>34</v>
       </c>
       <c r="B435" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C435" s="27">
         <v>2</v>
@@ -14122,7 +14138,7 @@
       <c r="D435" s="27"/>
       <c r="E435" s="27"/>
       <c r="G435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -14143,7 +14159,7 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>18</v>
@@ -14157,10 +14173,10 @@
         <v>374</v>
       </c>
       <c r="C439" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D439">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -14168,7 +14184,7 @@
         <v>22</v>
       </c>
       <c r="B440" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -14184,10 +14200,10 @@
         <v>26</v>
       </c>
       <c r="B442" s="31" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G442">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -14195,10 +14211,10 @@
         <v>26</v>
       </c>
       <c r="B443" s="31" t="s">
-        <v>552</v>
+        <v>377</v>
       </c>
       <c r="G443">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -14206,10 +14222,10 @@
         <v>26</v>
       </c>
       <c r="B444" s="31" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G444">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -14217,7 +14233,7 @@
         <v>26</v>
       </c>
       <c r="B445" s="31" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G445">
         <v>1</v>
@@ -14248,7 +14264,7 @@
         <v>34</v>
       </c>
       <c r="B448" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C448" s="27">
         <v>2</v>
@@ -14256,7 +14272,7 @@
       <c r="D448" s="27"/>
       <c r="E448" s="27"/>
       <c r="G448">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -14277,7 +14293,7 @@
     </row>
     <row r="451" spans="1:7">
       <c r="A451" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B451" s="30" t="s">
         <v>18</v>
@@ -14291,10 +14307,10 @@
         <v>374</v>
       </c>
       <c r="C452" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D452">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -14302,7 +14318,7 @@
         <v>22</v>
       </c>
       <c r="B453" s="12" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -14318,10 +14334,10 @@
         <v>26</v>
       </c>
       <c r="B455" s="31" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="G455">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -14329,10 +14345,10 @@
         <v>26</v>
       </c>
       <c r="B456" s="31" t="s">
-        <v>384</v>
+        <v>552</v>
       </c>
       <c r="G456">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -14340,10 +14356,10 @@
         <v>26</v>
       </c>
       <c r="B457" s="31" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="G457">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -14351,10 +14367,10 @@
         <v>26</v>
       </c>
       <c r="B458" s="31" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="G458">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -14382,7 +14398,7 @@
         <v>34</v>
       </c>
       <c r="B461" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C461" s="27">
         <v>2</v>
@@ -14390,7 +14406,7 @@
       <c r="D461" s="27"/>
       <c r="E461" s="27"/>
       <c r="G461">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -14411,7 +14427,7 @@
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="26" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="B464" s="30" t="s">
         <v>18</v>
@@ -14425,10 +14441,10 @@
         <v>374</v>
       </c>
       <c r="C465" s="21" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="D465">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -14436,7 +14452,7 @@
         <v>22</v>
       </c>
       <c r="B466" s="12" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -14452,10 +14468,10 @@
         <v>26</v>
       </c>
       <c r="B468" s="31" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="G468">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -14463,10 +14479,10 @@
         <v>26</v>
       </c>
       <c r="B469" s="31" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G469">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -14474,10 +14490,10 @@
         <v>26</v>
       </c>
       <c r="B470" s="31" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="G470">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -14485,10 +14501,10 @@
         <v>26</v>
       </c>
       <c r="B471" s="31" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G471">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -14516,7 +14532,7 @@
         <v>34</v>
       </c>
       <c r="B474" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C474" s="27">
         <v>2</v>
@@ -14524,7 +14540,7 @@
       <c r="D474" s="27"/>
       <c r="E474" s="27"/>
       <c r="G474">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -14545,7 +14561,7 @@
     </row>
     <row r="477" spans="1:7">
       <c r="A477" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B477" s="30" t="s">
         <v>18</v>
@@ -14559,10 +14575,10 @@
         <v>374</v>
       </c>
       <c r="C478" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D478">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -14570,7 +14586,7 @@
         <v>22</v>
       </c>
       <c r="B479" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -14578,7 +14594,7 @@
         <v>24</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -14586,10 +14602,10 @@
         <v>26</v>
       </c>
       <c r="B481" s="31" t="s">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="G481">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -14597,10 +14613,10 @@
         <v>26</v>
       </c>
       <c r="B482" s="31" t="s">
-        <v>98</v>
+        <v>387</v>
       </c>
       <c r="G482">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -14608,10 +14624,10 @@
         <v>26</v>
       </c>
       <c r="B483" s="31" t="s">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="G483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -14619,10 +14635,10 @@
         <v>26</v>
       </c>
       <c r="B484" s="31" t="s">
-        <v>65</v>
+        <v>389</v>
       </c>
       <c r="G484">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -14658,7 +14674,7 @@
       <c r="D487" s="27"/>
       <c r="E487" s="27"/>
       <c r="G487">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -14678,10 +14694,10 @@
       <c r="G489"/>
     </row>
     <row r="490" spans="1:7">
-      <c r="A490" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="B490" s="24" t="s">
+      <c r="A490" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B490" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14689,167 +14705,178 @@
       <c r="A491" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B491" s="1" t="s">
-        <v>300</v>
+      <c r="B491" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="C491" s="21" t="s">
-        <v>391</v>
+        <v>324</v>
       </c>
       <c r="D491">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="492" spans="1:7">
       <c r="A492" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B492" t="s">
-        <v>550</v>
+      <c r="B492" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="493" spans="1:7">
-      <c r="A493" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B493" t="s">
-        <v>330</v>
-      </c>
-      <c r="C493" t="s">
-        <v>331</v>
+      <c r="A493" t="s">
+        <v>24</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="494" spans="1:7">
-      <c r="A494" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B494" s="1"/>
+      <c r="A494" t="s">
+        <v>26</v>
+      </c>
+      <c r="B494" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G494">
+        <v>4</v>
+      </c>
     </row>
     <row r="495" spans="1:7">
-      <c r="A495" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="B495" s="24" t="s">
-        <v>18</v>
+      <c r="A495" t="s">
+        <v>26</v>
+      </c>
+      <c r="B495" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G495">
+        <v>3</v>
       </c>
     </row>
     <row r="496" spans="1:7">
-      <c r="A496" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B496" s="1"/>
+      <c r="A496" t="s">
+        <v>26</v>
+      </c>
+      <c r="B496" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G496">
+        <v>2</v>
+      </c>
     </row>
     <row r="497" spans="1:7">
-      <c r="A497" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B497" t="s">
-        <v>301</v>
+      <c r="A497" t="s">
+        <v>26</v>
+      </c>
+      <c r="B497" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:7">
-      <c r="A498" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B498" t="s">
-        <v>203</v>
-      </c>
+      <c r="A498" t="s">
+        <v>30</v>
+      </c>
+      <c r="G498"/>
     </row>
     <row r="499" spans="1:7">
-      <c r="A499" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B499" t="s">
-        <v>303</v>
-      </c>
-      <c r="G499">
-        <v>4</v>
-      </c>
+      <c r="A499" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B499" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C499" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D499" s="27"/>
+      <c r="E499" s="27"/>
+      <c r="G499"/>
     </row>
     <row r="500" spans="1:7">
-      <c r="A500" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B500" t="s">
-        <v>304</v>
-      </c>
+      <c r="A500" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B500" s="28">
+        <v>2</v>
+      </c>
+      <c r="C500" s="27">
+        <v>2</v>
+      </c>
+      <c r="D500" s="27"/>
+      <c r="E500" s="27"/>
       <c r="G500">
         <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:7">
-      <c r="A501" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B501" t="s">
-        <v>302</v>
-      </c>
-      <c r="G501">
-        <v>2</v>
-      </c>
+      <c r="A501" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B501" s="28"/>
+      <c r="C501" s="27"/>
+      <c r="D501" s="27"/>
+      <c r="E501" s="27"/>
+      <c r="G501"/>
     </row>
     <row r="502" spans="1:7">
-      <c r="A502" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B502" t="s">
-        <v>305</v>
-      </c>
-      <c r="G502">
-        <v>1</v>
-      </c>
+      <c r="A502" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G502"/>
     </row>
     <row r="503" spans="1:7">
-      <c r="A503" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B503"/>
+      <c r="A503" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="B503" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="504" spans="1:7">
-      <c r="A504" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B504" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D504" s="3"/>
-      <c r="E504" s="3"/>
+      <c r="A504" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C504" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D504">
+        <v>28</v>
+      </c>
     </row>
     <row r="505" spans="1:7">
-      <c r="A505" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B505" s="3">
-        <v>3</v>
-      </c>
-      <c r="C505" s="3">
-        <v>3</v>
-      </c>
-      <c r="D505" s="3"/>
-      <c r="E505" s="3"/>
-      <c r="G505" s="12">
-        <v>2</v>
+      <c r="A505" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B505" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="506" spans="1:7">
-      <c r="A506" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B506" s="4"/>
-      <c r="C506" s="3"/>
-      <c r="D506" s="3"/>
-      <c r="E506" s="3"/>
+      <c r="A506" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B506" t="s">
+        <v>330</v>
+      </c>
+      <c r="C506" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="507" spans="1:7">
       <c r="A507" s="8" t="s">
-        <v>567</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B507" s="1"/>
     </row>
     <row r="508" spans="1:7">
       <c r="A508" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B508" s="24" t="s">
         <v>18</v>
@@ -14866,474 +14893,597 @@
         <v>61</v>
       </c>
       <c r="B510" t="s">
-        <v>407</v>
+        <v>301</v>
       </c>
     </row>
     <row r="511" spans="1:7">
-      <c r="A511" s="19" t="s">
+      <c r="A511" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B511" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="A512" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B512" t="s">
+        <v>303</v>
+      </c>
+      <c r="G512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7">
+      <c r="A513" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B513" t="s">
+        <v>304</v>
+      </c>
+      <c r="G513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7">
+      <c r="A514" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B514" t="s">
+        <v>302</v>
+      </c>
+      <c r="G514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
+      <c r="A515" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B515" t="s">
+        <v>305</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B516"/>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B511" s="4"/>
-      <c r="C511" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D511" s="3"/>
-      <c r="E511" s="3"/>
-    </row>
-    <row r="512" spans="1:7">
-      <c r="A512" s="14" t="s">
+      <c r="B517" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D517" s="3"/>
+      <c r="E517" s="3"/>
+    </row>
+    <row r="518" spans="1:7">
+      <c r="A518" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B512" s="3">
-        <v>129</v>
-      </c>
-      <c r="C512" s="3">
+      <c r="B518" s="3">
         <v>3</v>
       </c>
-      <c r="D512" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E512" s="3"/>
-    </row>
-    <row r="513" spans="1:7">
-      <c r="A513" s="19" t="s">
+      <c r="C518" s="3">
+        <v>3</v>
+      </c>
+      <c r="D518" s="3"/>
+      <c r="E518" s="3"/>
+      <c r="G518" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7">
+      <c r="A519" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B513" s="4"/>
-      <c r="C513" s="3"/>
-      <c r="D513" s="3"/>
-      <c r="E513" s="3"/>
-    </row>
-    <row r="514" spans="1:7">
-      <c r="A514" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7">
-      <c r="A515" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B515" s="1"/>
-    </row>
-    <row r="516" spans="1:7" ht="24" customHeight="1">
-      <c r="A516" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7">
-      <c r="A517" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="B517" s="24" t="s">
+      <c r="B519" s="4"/>
+      <c r="C519" s="3"/>
+      <c r="D519" s="3"/>
+      <c r="E519" s="3"/>
+    </row>
+    <row r="520" spans="1:7">
+      <c r="A520" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B521" s="24" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7">
-      <c r="A518" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C518" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="D518">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7">
-      <c r="A519" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B519" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7">
-      <c r="A520" t="s">
-        <v>229</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7">
-      <c r="A521" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B521" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="G521">
-        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:7">
       <c r="A522" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B522" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="G522">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B522" s="1"/>
     </row>
     <row r="523" spans="1:7">
-      <c r="A523" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B523" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="G523">
-        <v>2</v>
+      <c r="A523" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B523" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="524" spans="1:7">
-      <c r="A524" t="s">
-        <v>230</v>
-      </c>
-      <c r="G524"/>
+      <c r="A524" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B524" s="4"/>
+      <c r="C524" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D524" s="3"/>
+      <c r="E524" s="3"/>
     </row>
     <row r="525" spans="1:7">
-      <c r="A525" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B525" s="1"/>
+      <c r="A525" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B525" s="3">
+        <v>129</v>
+      </c>
+      <c r="C525" s="3">
+        <v>3</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E525" s="3"/>
     </row>
     <row r="526" spans="1:7">
-      <c r="A526" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="B526" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="A526" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B526" s="4"/>
+      <c r="C526" s="3"/>
+      <c r="D526" s="3"/>
+      <c r="E526" s="3"/>
     </row>
     <row r="527" spans="1:7">
       <c r="A527" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B528" s="1"/>
+    </row>
+    <row r="529" spans="1:7" ht="24" customHeight="1">
+      <c r="A529" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="B530" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C531" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D531">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B532" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533" t="s">
+        <v>229</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B534" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G534">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B535" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="G535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B536" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="G536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" t="s">
+        <v>230</v>
+      </c>
+      <c r="G537"/>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B538" s="1"/>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B539" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B527" s="1"/>
-    </row>
-    <row r="528" spans="1:7">
-      <c r="A528" s="18" t="s">
+      <c r="B540" s="1"/>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B541" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
-      <c r="A529" s="19" t="s">
+    <row r="542" spans="1:7">
+      <c r="A542" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B529" s="4"/>
-      <c r="C529" s="3" t="s">
+      <c r="B542" s="4"/>
+      <c r="C542" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D529" s="3"/>
-      <c r="E529" s="3"/>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="A530" s="14" t="s">
+      <c r="D542" s="3"/>
+      <c r="E542" s="3"/>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B530" s="27" t="s">
+      <c r="B543" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="C530" s="3">
+      <c r="C543" s="3">
         <v>3</v>
       </c>
-      <c r="D530" s="3" t="s">
+      <c r="D543" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E530" s="3" t="s">
+      <c r="E543" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
-      <c r="A531" s="14" t="s">
+    <row r="544" spans="1:7">
+      <c r="A544" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B531" s="27" t="s">
+      <c r="B544" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="C531" s="3">
+      <c r="C544" s="3">
         <v>3</v>
       </c>
-      <c r="D531" s="3" t="s">
+      <c r="D544" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E531" s="3" t="s">
+      <c r="E544" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
-      <c r="A532" s="19" t="s">
+    <row r="545" spans="1:5">
+      <c r="A545" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B532" s="4"/>
-      <c r="C532" s="3"/>
-      <c r="D532" s="3"/>
-      <c r="E532" s="3"/>
-    </row>
-    <row r="533" spans="1:5">
-      <c r="A533" s="43" t="s">
+      <c r="B545" s="4"/>
+      <c r="C545" s="3"/>
+      <c r="D545" s="3"/>
+      <c r="E545" s="3"/>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="43" t="s">
         <v>562</v>
       </c>
-      <c r="B533" s="44" t="s">
+      <c r="B546" s="44" t="s">
         <v>564</v>
       </c>
-      <c r="C533" s="44" t="s">
+      <c r="C546" s="44" t="s">
         <v>563</v>
       </c>
-      <c r="D533" s="3"/>
-      <c r="E533" s="3"/>
-    </row>
-    <row r="534" spans="1:5">
-      <c r="A534" s="8" t="s">
+      <c r="D546" s="3"/>
+      <c r="E546" s="3"/>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
-      <c r="A535" s="23" t="s">
+    <row r="548" spans="1:5">
+      <c r="A548" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B535" s="24" t="s">
+      <c r="B548" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
-      <c r="A536" s="8" t="s">
+    <row r="549" spans="1:5">
+      <c r="A549" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B536" s="1"/>
-    </row>
-    <row r="537" spans="1:5">
-      <c r="A537" s="18" t="s">
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B550" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
-      <c r="A538" s="18" t="s">
+    <row r="551" spans="1:5">
+      <c r="A551" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B551" t="s">
         <v>329</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C551" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
-      <c r="A539" s="19" t="s">
+    <row r="552" spans="1:5">
+      <c r="A552" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B539" s="4"/>
-      <c r="C539" s="3" t="s">
+      <c r="B552" s="4"/>
+      <c r="C552" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D539" s="3"/>
-      <c r="E539" s="3"/>
-    </row>
-    <row r="540" spans="1:5">
-      <c r="A540" s="14" t="s">
+      <c r="D552" s="3"/>
+      <c r="E552" s="3"/>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B540" s="3">
+      <c r="B553" s="3">
         <v>-2.64</v>
       </c>
-      <c r="C540" s="3">
+      <c r="C553" s="3">
         <v>3</v>
       </c>
-      <c r="D540" s="3" t="s">
+      <c r="D553" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="E540" s="3"/>
-    </row>
-    <row r="541" spans="1:5">
-      <c r="A541" s="19" t="s">
+      <c r="E553" s="3"/>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B541" s="4"/>
-      <c r="C541" s="3"/>
-      <c r="D541" s="3"/>
-      <c r="E541" s="3"/>
-    </row>
-    <row r="542" spans="1:5">
-      <c r="A542" s="8" t="s">
+      <c r="B554" s="4"/>
+      <c r="C554" s="3"/>
+      <c r="D554" s="3"/>
+      <c r="E554" s="3"/>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
-      <c r="A543" s="23" t="s">
+    <row r="556" spans="1:5">
+      <c r="A556" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="B543" s="24" t="s">
+      <c r="B556" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
-      <c r="A544" s="8" t="s">
+    <row r="557" spans="1:5">
+      <c r="A557" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B544" s="1"/>
-    </row>
-    <row r="545" spans="1:5">
-      <c r="A545" s="18" t="s">
+      <c r="B557" s="1"/>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B558" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
-      <c r="A546" s="18" t="s">
+    <row r="559" spans="1:5">
+      <c r="A559" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B559" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
-      <c r="A547" s="18" t="s">
+    <row r="560" spans="1:5">
+      <c r="A560" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B560" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
-      <c r="A548" s="19" t="s">
+    <row r="561" spans="1:5">
+      <c r="A561" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B548" s="4"/>
-      <c r="C548" s="3" t="s">
+      <c r="B561" s="4"/>
+      <c r="C561" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D548" s="3"/>
-      <c r="E548" s="3"/>
-    </row>
-    <row r="549" spans="1:5">
-      <c r="A549" s="14" t="s">
+      <c r="D561" s="3"/>
+      <c r="E561" s="3"/>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B549" s="3" t="s">
+      <c r="B562" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C549" s="3">
+      <c r="C562" s="3">
         <v>3</v>
       </c>
-      <c r="D549" s="3" t="s">
+      <c r="D562" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E549" s="3" t="s">
+      <c r="E562" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
-      <c r="A550" s="19" t="s">
+    <row r="563" spans="1:5">
+      <c r="A563" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B550" s="4"/>
-      <c r="C550" s="3"/>
-      <c r="D550" s="3"/>
-      <c r="E550" s="3"/>
-    </row>
-    <row r="551" spans="1:5">
-      <c r="A551" s="8" t="s">
+      <c r="B563" s="4"/>
+      <c r="C563" s="3"/>
+      <c r="D563" s="3"/>
+      <c r="E563" s="3"/>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
-      <c r="A552" s="26" t="s">
+    <row r="565" spans="1:5">
+      <c r="A565" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="B552" s="30" t="s">
+      <c r="B565" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
-      <c r="A553" s="8" t="s">
+    <row r="566" spans="1:5">
+      <c r="A566" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B553" s="1"/>
-    </row>
-    <row r="554" spans="1:5">
-      <c r="A554" s="18" t="s">
+      <c r="B566" s="1"/>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B567" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
-      <c r="A555" s="19" t="s">
+    <row r="568" spans="1:5">
+      <c r="A568" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B555" s="4"/>
-      <c r="C555" s="3" t="s">
+      <c r="B568" s="4"/>
+      <c r="C568" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D555" s="3"/>
-      <c r="E555" s="3"/>
-    </row>
-    <row r="556" spans="1:5">
-      <c r="A556" s="14" t="s">
+      <c r="D568" s="3"/>
+      <c r="E568" s="3"/>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B556" s="3" t="s">
+      <c r="B569" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C556" s="3">
+      <c r="C569" s="3">
         <v>3</v>
       </c>
-      <c r="D556" s="3" t="s">
+      <c r="D569" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="E556" s="3"/>
-    </row>
-    <row r="557" spans="1:5">
-      <c r="A557" s="19" t="s">
+      <c r="E569" s="3"/>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B557" s="4"/>
-      <c r="C557" s="3"/>
-      <c r="D557" s="3"/>
-      <c r="E557" s="3"/>
-    </row>
-    <row r="558" spans="1:5">
-      <c r="A558" s="8" t="s">
+      <c r="B570" s="4"/>
+      <c r="C570" s="3"/>
+      <c r="D570" s="3"/>
+      <c r="E570" s="3"/>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
-      <c r="A559" s="8" t="s">
+    <row r="572" spans="1:5">
+      <c r="A572" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B559" s="1"/>
-    </row>
-    <row r="560" spans="1:5" ht="24" customHeight="1">
-      <c r="A560" s="20" t="s">
+      <c r="B572" s="1"/>
+    </row>
+    <row r="573" spans="1:5" ht="24" customHeight="1">
+      <c r="A573" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
-      <c r="A561" s="6" t="s">
+    <row r="574" spans="1:5">
+      <c r="A574" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B561" s="5"/>
-      <c r="C561" s="5"/>
-      <c r="D561" s="5"/>
-      <c r="E561" s="5"/>
+      <c r="B574" s="5"/>
+      <c r="C574" s="5"/>
+      <c r="D574" s="5"/>
+      <c r="E574" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E561" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:E574" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
